--- a/biology/Zoologie/Hippocampus_whitei/Hippocampus_whitei.xlsx
+++ b/biology/Zoologie/Hippocampus_whitei/Hippocampus_whitei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippocampus whitei, communément appelé Hippocampe de White, est une espèce de poissons du genre Hippocampus.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippocampus whitei se rencontre dans le Sud-ouest pacifique, le long des côtes des Solomon et du nord-est de l'Australie. Les observations faites au Mozambique, au Natal et en Afrique du Sud seraient des confusions avec l'espèce Hippocampus camelopardalis[4]. Hippocampus whitei vit entre un mètre et 25 m de profondeur (avec un maximum à -46 m)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippocampus whitei se rencontre dans le Sud-ouest pacifique, le long des côtes des Solomon et du nord-est de l'Australie. Les observations faites au Mozambique, au Natal et en Afrique du Sud seraient des confusions avec l'espèce Hippocampus camelopardalis. Hippocampus whitei vit entre un mètre et 25 m de profondeur (avec un maximum à -46 m).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Hippocampus whitei est de 130 mm, avec une taille habituelle d'environ 80 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Hippocampus whitei est de 130 mm, avec une taille habituelle d'environ 80 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, whitei, ainsi que son nom vernaculaire lui ont été donnés en l'honneur de John White (c. 1756-1832), chirurgien et naturaliste anglais[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, whitei, ainsi que son nom vernaculaire lui ont été donnés en l'honneur de John White (c. 1756-1832), chirurgien et naturaliste anglais.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(de + la) Bleeker, 1855 : Over eenige visschen van Van Diemensland. Verhandelingen der Koninklijke Akademie van Wetenschappen, vol. 2, n. 7, pp. 1-31[6] (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(de + la) Bleeker, 1855 : Over eenige visschen van Van Diemensland. Verhandelingen der Koninklijke Akademie van Wetenschappen, vol. 2, n. 7, pp. 1-31 (texte intégral).</t>
         </is>
       </c>
     </row>
